--- a/raw_data/20200818_saline/20200818_Sensor3_Test_24.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_24.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC1063-0787-40E4-B987-64C0ECBC87EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>21252.293922</v>
+        <v>21252.293922000001</v>
       </c>
       <c r="B2" s="1">
-        <v>5.903415</v>
+        <v>5.9034149999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1140.420000</v>
+        <v>1140.42</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.522000</v>
+        <v>-257.52199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21262.669734</v>
+        <v>21262.669733999999</v>
       </c>
       <c r="G2" s="1">
-        <v>5.906297</v>
+        <v>5.9062970000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>1161.810000</v>
+        <v>1161.81</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.257000</v>
+        <v>-216.25700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>21273.353068</v>
       </c>
       <c r="L2" s="1">
-        <v>5.909265</v>
+        <v>5.9092650000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>1188.510000</v>
+        <v>1188.51</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.471000</v>
+        <v>-149.471</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>21283.767102</v>
+        <v>21283.767102000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.912158</v>
+        <v>5.9121579999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1196.250000</v>
+        <v>1196.25</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.795000</v>
+        <v>-127.795</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>21294.310555</v>
       </c>
       <c r="V2" s="1">
-        <v>5.915086</v>
+        <v>5.9150859999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>1203.390000</v>
+        <v>1203.3900000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.035000</v>
+        <v>-107.035</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>21304.742382</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.917984</v>
+        <v>5.9179839999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>1210.700000</v>
+        <v>1210.7</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.083000</v>
+        <v>-90.082999999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>21315.306207</v>
+        <v>21315.306207000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.920918</v>
+        <v>5.9209180000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.720200</v>
+        <v>-85.720200000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>21326.081761</v>
+        <v>21326.081761000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.923912</v>
+        <v>5.9239119999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.112100</v>
+        <v>-89.112099999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>21336.739795</v>
+        <v>21336.739795000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.926872</v>
+        <v>5.9268720000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.124000</v>
+        <v>-101.124</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>21347.390884</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.929831</v>
+        <v>5.9298310000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.483000</v>
+        <v>-120.483</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>21358.153574</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.932820</v>
+        <v>5.9328200000000004</v>
       </c>
       <c r="BA2" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.916000</v>
+        <v>-137.916</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>21368.764024</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.935768</v>
+        <v>5.9357680000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.455000</v>
+        <v>-219.45500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>21379.430954</v>
+        <v>21379.430953999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.938731</v>
+        <v>5.9387309999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.360000</v>
+        <v>1358.36</v>
       </c>
       <c r="BL2" s="1">
-        <v>-354.850000</v>
+        <v>-354.85</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>21390.814177</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.941893</v>
+        <v>5.9418930000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.760000</v>
+        <v>1471.76</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.603000</v>
+        <v>-575.60299999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>21401.185485</v>
+        <v>21401.185485000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.944774</v>
+        <v>5.9447739999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1602.880000</v>
+        <v>1602.88</v>
       </c>
       <c r="BV2" s="1">
-        <v>-825.117000</v>
+        <v>-825.11699999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>21411.923872</v>
+        <v>21411.923871999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.947757</v>
+        <v>5.9477570000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1753.490000</v>
+        <v>1753.49</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.210000</v>
+        <v>-1097.21</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>21423.272864</v>
+        <v>21423.272863999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.950909</v>
+        <v>5.9509090000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2170.920000</v>
+        <v>2170.92</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1757.190000</v>
+        <v>-1757.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>21253.000226</v>
       </c>
       <c r="B3" s="1">
-        <v>5.903611</v>
+        <v>5.9036109999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>1140.240000</v>
+        <v>1140.24</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.656000</v>
+        <v>-257.65600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>21263.394419</v>
@@ -753,390 +1169,390 @@
         <v>5.906498</v>
       </c>
       <c r="H3" s="1">
-        <v>1162.080000</v>
+        <v>1162.08</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.993000</v>
+        <v>-215.99299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>21273.689386</v>
+        <v>21273.689385999998</v>
       </c>
       <c r="L3" s="1">
-        <v>5.909358</v>
+        <v>5.9093580000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1188.650000</v>
+        <v>1188.6500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.849000</v>
+        <v>-149.84899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>21284.124184</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.912257</v>
+        <v>5.9122570000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>1196.320000</v>
+        <v>1196.32</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.779000</v>
+        <v>-127.779</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>21294.671610</v>
+        <v>21294.671610000001</v>
       </c>
       <c r="V3" s="1">
-        <v>5.915187</v>
+        <v>5.9151870000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1203.350000</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.988000</v>
+        <v>-106.988</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>21305.428380</v>
+        <v>21305.428380000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.918175</v>
+        <v>5.9181749999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1210.690000</v>
+        <v>1210.69</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.930300</v>
+        <v>-89.930300000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>21315.992142</v>
+        <v>21315.992141999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.921109</v>
+        <v>5.9211090000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>1215.060000</v>
+        <v>1215.06</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.668300</v>
+        <v>-85.668300000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>21326.500074</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.924028</v>
+        <v>5.9240279999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.129900</v>
+        <v>-89.129900000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>21337.093938</v>
+        <v>21337.093938000002</v>
       </c>
       <c r="AP3" s="1">
         <v>5.926971</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.117000</v>
+        <v>-101.117</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>21347.755971</v>
+        <v>21347.755970999999</v>
       </c>
       <c r="AU3" s="1">
         <v>5.929932</v>
       </c>
       <c r="AV3" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.483000</v>
+        <v>-120.483</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>21358.517638</v>
+        <v>21358.517638000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.932922</v>
+        <v>5.9329219999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.924000</v>
+        <v>-137.92400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>21369.164760</v>
+        <v>21369.16476</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.935879</v>
+        <v>5.9358789999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1288.950000</v>
+        <v>1288.95</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.434000</v>
+        <v>-219.434</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>21379.866443</v>
+        <v>21379.866442999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.938852</v>
+        <v>5.9388519999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="BL3" s="1">
-        <v>-354.915000</v>
+        <v>-354.91500000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>21390.953055</v>
+        <v>21390.953055000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.941931</v>
+        <v>5.9419310000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.616000</v>
+        <v>-575.61599999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>21401.341229</v>
+        <v>21401.341229000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.944817</v>
+        <v>5.9448169999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>1602.880000</v>
+        <v>1602.88</v>
       </c>
       <c r="BV3" s="1">
-        <v>-825.190000</v>
+        <v>-825.19</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>21412.388623</v>
+        <v>21412.388622999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.947886</v>
+        <v>5.9478859999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.250000</v>
+        <v>-1097.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>21423.823896</v>
+        <v>21423.823896000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.951062</v>
+        <v>5.9510620000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>2168.650000</v>
+        <v>2168.65</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1756.110000</v>
+        <v>-1756.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>21253.343953</v>
       </c>
       <c r="B4" s="1">
-        <v>5.903707</v>
+        <v>5.9037069999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1140.350000</v>
+        <v>1140.3499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.454000</v>
+        <v>-257.45400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>21263.742579</v>
+        <v>21263.742579000002</v>
       </c>
       <c r="G4" s="1">
-        <v>5.906595</v>
+        <v>5.9065950000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>1161.290000</v>
+        <v>1161.29</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.060000</v>
+        <v>-216.06</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>21274.036551</v>
+        <v>21274.036551000001</v>
       </c>
       <c r="L4" s="1">
-        <v>5.909455</v>
+        <v>5.9094550000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>1188.620000</v>
+        <v>1188.6199999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.688000</v>
+        <v>-149.68799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>21284.472375</v>
+        <v>21284.472375000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.912353</v>
+        <v>5.9123530000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1196.310000</v>
+        <v>1196.31</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.846000</v>
+        <v>-127.846</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>21295.324841</v>
+        <v>21295.324841000001</v>
       </c>
       <c r="V4" s="1">
         <v>5.915368</v>
       </c>
       <c r="W4" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.961000</v>
+        <v>-106.961</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>21305.823661</v>
+        <v>21305.823660999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.918284</v>
+        <v>5.9182839999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.241800</v>
+        <v>-90.241799999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>21316.378031</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.921216</v>
+        <v>5.9212160000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.754400</v>
+        <v>-85.754400000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>21326.852047</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.924126</v>
+        <v>5.9241260000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.117800</v>
+        <v>-89.117800000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>21337.454562</v>
+        <v>21337.454561999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.927071</v>
+        <v>5.9270709999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.149000</v>
+        <v>-101.149</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>21348.122483</v>
+        <v>21348.122482999999</v>
       </c>
       <c r="AU4" s="1">
         <v>5.930034</v>
       </c>
       <c r="AV4" s="1">
-        <v>1240.260000</v>
+        <v>1240.26</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.468000</v>
+        <v>-120.468</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>21358.918437</v>
@@ -1145,587 +1561,587 @@
         <v>5.933033</v>
       </c>
       <c r="BA4" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.906000</v>
+        <v>-137.90600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>21369.573463</v>
+        <v>21369.573463000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.935993</v>
+        <v>5.9359929999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1288.950000</v>
+        <v>1288.95</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.428000</v>
+        <v>-219.428</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>21380.200745</v>
+        <v>21380.200744999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.938945</v>
+        <v>5.9389450000000004</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.310000</v>
+        <v>1358.31</v>
       </c>
       <c r="BL4" s="1">
-        <v>-354.896000</v>
+        <v>-354.89600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>21391.377840</v>
+        <v>21391.377840000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.942049</v>
+        <v>5.9420489999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1471.760000</v>
+        <v>1471.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.634000</v>
+        <v>-575.63400000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>21401.751422</v>
+        <v>21401.751422000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.944931</v>
+        <v>5.9449310000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1602.800000</v>
+        <v>1602.8</v>
       </c>
       <c r="BV4" s="1">
-        <v>-825.037000</v>
+        <v>-825.03700000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>21412.808749</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.948002</v>
+        <v>5.9480019999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1753.470000</v>
+        <v>1753.47</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.280000</v>
+        <v>-1097.28</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>21424.362544</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.951212</v>
+        <v>5.9512119999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2170.280000</v>
+        <v>2170.2800000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1758.530000</v>
+        <v>-1758.53</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>21253.683712</v>
+        <v>21253.683711999998</v>
       </c>
       <c r="B5" s="1">
-        <v>5.903801</v>
+        <v>5.9038009999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1140.310000</v>
+        <v>1140.31</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.581000</v>
+        <v>-257.58100000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>21264.085811</v>
+        <v>21264.085811000001</v>
       </c>
       <c r="G5" s="1">
-        <v>5.906691</v>
+        <v>5.9066910000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>1161.960000</v>
+        <v>1161.96</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.064000</v>
+        <v>-216.06399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>21274.687302</v>
+        <v>21274.687301999998</v>
       </c>
       <c r="L5" s="1">
-        <v>5.909635</v>
+        <v>5.9096349999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>1188.550000</v>
+        <v>1188.55</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.611000</v>
+        <v>-149.61099999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>21285.129080</v>
+        <v>21285.129079999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.912536</v>
+        <v>5.9125360000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1196.270000</v>
+        <v>1196.27</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.833000</v>
+        <v>-127.833</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>21295.698825</v>
+        <v>21295.698824999999</v>
       </c>
       <c r="V5" s="1">
-        <v>5.915472</v>
+        <v>5.9154720000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>1203.400000</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.958000</v>
+        <v>-106.958</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>21306.172348</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.918381</v>
+        <v>5.9183810000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.180300</v>
+        <v>-90.180300000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>21316.722781</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.921312</v>
+        <v>5.9213120000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.441500</v>
+        <v>-85.441500000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>21327.201727</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.924223</v>
+        <v>5.9242229999999996</v>
       </c>
       <c r="AL5" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.156700</v>
+        <v>-89.156700000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>21337.861286</v>
+        <v>21337.861285999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.927184</v>
+        <v>5.9271839999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.133000</v>
+        <v>-101.133</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>21348.537635</v>
+        <v>21348.537635000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.930149</v>
+        <v>5.9301490000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.490000</v>
+        <v>-120.49</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>21359.236341</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.933121</v>
+        <v>5.9331209999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.923000</v>
+        <v>-137.923</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>21369.882471</v>
+        <v>21369.882471000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.936078</v>
+        <v>5.9360780000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.433000</v>
+        <v>-219.43299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>21380.575753</v>
+        <v>21380.575753000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.939049</v>
+        <v>5.9390489999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="BL5" s="1">
-        <v>-354.890000</v>
+        <v>-354.89</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>21391.777626</v>
+        <v>21391.777625999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.942160</v>
+        <v>5.9421600000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1471.710000</v>
+        <v>1471.71</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.655000</v>
+        <v>-575.65499999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>21402.184428</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.945051</v>
+        <v>5.9450510000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1602.710000</v>
+        <v>1602.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-825.021000</v>
+        <v>-825.02099999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>21413.247198</v>
+        <v>21413.247198000001</v>
       </c>
       <c r="BY5" s="1">
         <v>5.948124</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1753.290000</v>
+        <v>1753.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.360000</v>
+        <v>-1097.3599999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>21424.905663</v>
+        <v>21424.905663000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.951363</v>
+        <v>5.9513629999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>2169.930000</v>
+        <v>2169.9299999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1755.880000</v>
+        <v>-1755.88</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>21254.330991</v>
+        <v>21254.330990999999</v>
       </c>
       <c r="B6" s="1">
-        <v>5.903981</v>
+        <v>5.9039809999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1140.460000</v>
+        <v>1140.46</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.607000</v>
+        <v>-257.60700000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>21264.747508</v>
       </c>
       <c r="G6" s="1">
-        <v>5.906874</v>
+        <v>5.9068740000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1161.530000</v>
+        <v>1161.53</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.988000</v>
+        <v>-216.988</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>21275.077156</v>
+        <v>21275.077155999999</v>
       </c>
       <c r="L6" s="1">
-        <v>5.909744</v>
+        <v>5.9097439999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1188.510000</v>
+        <v>1188.51</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.729000</v>
+        <v>-149.72900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>21285.514502</v>
+        <v>21285.514502000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.912643</v>
+        <v>5.9126430000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1196.250000</v>
+        <v>1196.25</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.801000</v>
+        <v>-127.801</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>21296.044076</v>
+        <v>21296.044075999998</v>
       </c>
       <c r="V6" s="1">
-        <v>5.915568</v>
+        <v>5.9155680000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>1203.400000</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.036000</v>
+        <v>-107.036</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>21306.523050</v>
+        <v>21306.52305</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.918479</v>
+        <v>5.9184789999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>1210.720000</v>
+        <v>1210.72</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.138900</v>
+        <v>-90.138900000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>21317.066973</v>
+        <v>21317.066973000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.921407</v>
+        <v>5.9214070000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.766000</v>
+        <v>-85.766000000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>21327.622832</v>
+        <v>21327.622832000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.924340</v>
+        <v>5.9243399999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.165700</v>
+        <v>-89.165700000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>21338.172274</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.927270</v>
+        <v>5.92727</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.139000</v>
+        <v>-101.139</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>21348.850114</v>
+        <v>21348.850114000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.930236</v>
+        <v>5.9302359999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.457000</v>
+        <v>-120.45699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>21359.593492</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.933220</v>
+        <v>5.9332200000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.884000</v>
+        <v>-137.88399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>21370.273814</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.936187</v>
+        <v>5.9361870000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1288.950000</v>
+        <v>1288.95</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.467000</v>
+        <v>-219.46700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>21380.961116</v>
+        <v>21380.961115999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.939156</v>
+        <v>5.9391559999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="BL6" s="1">
-        <v>-354.882000</v>
+        <v>-354.88200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>21392.199993</v>
+        <v>21392.199992999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.942278</v>
+        <v>5.9422779999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.639000</v>
+        <v>-575.63900000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>21402.611979</v>
+        <v>21402.611979000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.945170</v>
+        <v>5.9451700000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1602.690000</v>
+        <v>1602.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.918000</v>
+        <v>-824.91800000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>21413.680237</v>
@@ -1734,2358 +2150,2358 @@
         <v>5.948245</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.300000</v>
+        <v>-1097.3</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>21425.444318</v>
+        <v>21425.444318000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.951512</v>
+        <v>5.9515120000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2168.580000</v>
+        <v>2168.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1757.900000</v>
+        <v>-1757.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>21254.710431</v>
       </c>
       <c r="B7" s="1">
-        <v>5.904086</v>
+        <v>5.9040860000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1140.430000</v>
+        <v>1140.43</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.575000</v>
+        <v>-257.57499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>21265.117520</v>
+        <v>21265.11752</v>
       </c>
       <c r="G7" s="1">
-        <v>5.906977</v>
+        <v>5.9069770000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>1161.260000</v>
+        <v>1161.26</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.508000</v>
+        <v>-215.50800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>21275.421279</v>
+        <v>21275.421278999998</v>
       </c>
       <c r="L7" s="1">
-        <v>5.909839</v>
+        <v>5.9098389999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1188.550000</v>
+        <v>1188.55</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.006000</v>
+        <v>-150.006</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>21285.864646</v>
+        <v>21285.864646000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.912740</v>
+        <v>5.9127400000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1196.340000</v>
+        <v>1196.3399999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.770000</v>
+        <v>-127.77</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>21296.388761</v>
+        <v>21296.388760999998</v>
       </c>
       <c r="V7" s="1">
-        <v>5.915664</v>
+        <v>5.9156639999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>1203.360000</v>
+        <v>1203.3599999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.996000</v>
+        <v>-106.996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>21306.937211</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.918594</v>
+        <v>5.9185939999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.215400</v>
+        <v>-90.215400000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>21317.486093</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.921524</v>
+        <v>5.9215239999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.894500</v>
+        <v>-85.894499999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>21327.900097</v>
+        <v>21327.900097000002</v>
       </c>
       <c r="AK7" s="1">
         <v>5.924417</v>
       </c>
       <c r="AL7" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.122300</v>
+        <v>-89.122299999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>21338.535312</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.927371</v>
+        <v>5.9273709999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.142000</v>
+        <v>-101.142</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>21349.210211</v>
+        <v>21349.210211000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.930336</v>
+        <v>5.9303359999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.495000</v>
+        <v>-120.495</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>21359.951077</v>
+        <v>21359.951077000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.933320</v>
+        <v>5.9333200000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.938000</v>
+        <v>-137.93799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>21370.929037</v>
+        <v>21370.929037000002</v>
       </c>
       <c r="BE7" s="1">
         <v>5.936369</v>
       </c>
       <c r="BF7" s="1">
-        <v>1288.950000</v>
+        <v>1288.95</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.449000</v>
+        <v>-219.44900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>21381.723495</v>
+        <v>21381.723494999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>5.939368</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.340000</v>
+        <v>1358.34</v>
       </c>
       <c r="BL7" s="1">
-        <v>-354.910000</v>
+        <v>-354.91</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>21392.595801</v>
+        <v>21392.595800999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.942388</v>
+        <v>5.9423880000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.770000</v>
+        <v>1471.77</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.686000</v>
+        <v>-575.68600000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>21403.023659</v>
+        <v>21403.023658999999</v>
       </c>
       <c r="BT7" s="1">
         <v>5.945284</v>
       </c>
       <c r="BU7" s="1">
-        <v>1602.600000</v>
+        <v>1602.6</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.942000</v>
+        <v>-824.94200000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>21414.098364</v>
+        <v>21414.098364000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.948361</v>
+        <v>5.9483610000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1097.300000</v>
+        <v>-1097.3</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>21426.289500</v>
+        <v>21426.289499999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.951747</v>
+        <v>5.9517470000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2169.480000</v>
+        <v>2169.48</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1755.930000</v>
+        <v>-1755.93</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>21255.051691</v>
+        <v>21255.051691000001</v>
       </c>
       <c r="B8" s="1">
-        <v>5.904181</v>
+        <v>5.9041810000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1140.510000</v>
+        <v>1140.51</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.735000</v>
+        <v>-257.73500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>21265.460754</v>
       </c>
       <c r="G8" s="1">
-        <v>5.907072</v>
+        <v>5.9070720000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>1161.290000</v>
+        <v>1161.29</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.613000</v>
+        <v>-215.613</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>21275.766595</v>
+        <v>21275.766595000001</v>
       </c>
       <c r="L8" s="1">
-        <v>5.909935</v>
+        <v>5.9099349999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1188.720000</v>
+        <v>1188.72</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.652000</v>
+        <v>-149.65199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>21286.282773</v>
+        <v>21286.282772999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.912856</v>
+        <v>5.9128559999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1196.310000</v>
+        <v>1196.31</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.781000</v>
+        <v>-127.78100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>21296.813375</v>
+        <v>21296.813375000002</v>
       </c>
       <c r="V8" s="1">
         <v>5.915781</v>
       </c>
       <c r="W8" s="1">
-        <v>1203.320000</v>
+        <v>1203.32</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.980000</v>
+        <v>-106.98</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>21307.220926</v>
+        <v>21307.220926000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.918672</v>
+        <v>5.9186719999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1210.820000</v>
+        <v>1210.82</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.185200</v>
+        <v>-90.185199999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>21317.779756</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.921605</v>
+        <v>5.9216049999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.703400</v>
+        <v>-85.703400000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>21328.252285</v>
+        <v>21328.252284999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.924515</v>
+        <v>5.9245150000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1222.300000</v>
+        <v>1222.3</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.146900</v>
+        <v>-89.146900000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>21338.894416</v>
+        <v>21338.894415999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.927471</v>
+        <v>5.9274709999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1230.250000</v>
+        <v>1230.25</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.154000</v>
+        <v>-101.154</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>21349.579731</v>
+        <v>21349.579731000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.930439</v>
+        <v>5.9304389999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.483000</v>
+        <v>-120.483</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>21360.665812</v>
+        <v>21360.665811999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.933518</v>
+        <v>5.9335180000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.923000</v>
+        <v>-137.923</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>21371.330325</v>
+        <v>21371.330324999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.936481</v>
+        <v>5.9364809999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1288.950000</v>
+        <v>1288.95</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.434000</v>
+        <v>-219.434</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>21382.099457</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.939472</v>
+        <v>5.9394720000000003</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.380000</v>
+        <v>1358.38</v>
       </c>
       <c r="BL8" s="1">
-        <v>-354.872000</v>
+        <v>-354.87200000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>21393.015880</v>
+        <v>21393.015879999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.942504</v>
+        <v>5.9425039999999996</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.740000</v>
+        <v>1471.74</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.647000</v>
+        <v>-575.64700000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>21403.453690</v>
+        <v>21403.453689999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.945404</v>
+        <v>5.9454039999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1602.550000</v>
+        <v>1602.55</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.877000</v>
+        <v>-824.87699999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>21414.814588</v>
+        <v>21414.814588000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.948560</v>
+        <v>5.9485599999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1753.320000</v>
+        <v>1753.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.280000</v>
+        <v>-1097.28</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>21426.524474</v>
+        <v>21426.524474000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.951812</v>
+        <v>5.9518120000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>2169.560000</v>
+        <v>2169.56</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1756.120000</v>
+        <v>-1756.12</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>21255.392467</v>
+        <v>21255.392467000001</v>
       </c>
       <c r="B9" s="1">
-        <v>5.904276</v>
+        <v>5.9042760000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1140.350000</v>
+        <v>1140.3499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.535000</v>
+        <v>-257.53500000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>21265.806433</v>
+        <v>21265.806433000002</v>
       </c>
       <c r="G9" s="1">
-        <v>5.907168</v>
+        <v>5.9071680000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>1162.110000</v>
+        <v>1162.1099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.440000</v>
+        <v>-215.44</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>21276.179299</v>
+        <v>21276.179298999999</v>
       </c>
       <c r="L9" s="1">
-        <v>5.910050</v>
+        <v>5.91005</v>
       </c>
       <c r="M9" s="1">
-        <v>1188.560000</v>
+        <v>1188.56</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.154000</v>
+        <v>-150.154</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>21286.561525</v>
+        <v>21286.561525000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.912934</v>
+        <v>5.9129339999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1196.330000</v>
+        <v>1196.33</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.828000</v>
+        <v>-127.828</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>21297.093608</v>
+        <v>21297.093607999999</v>
       </c>
       <c r="V9" s="1">
-        <v>5.915859</v>
+        <v>5.9158590000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1203.280000</v>
+        <v>1203.28</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.014000</v>
+        <v>-107.014</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>21307.568415</v>
+        <v>21307.568415000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.918769</v>
+        <v>5.9187690000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1210.600000</v>
+        <v>1210.5999999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.042400</v>
+        <v>-90.042400000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>21318.125435</v>
+        <v>21318.125435000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.921702</v>
+        <v>5.9217019999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.847300</v>
+        <v>-85.847300000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>21328.598493</v>
+        <v>21328.598493000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.924611</v>
+        <v>5.9246109999999996</v>
       </c>
       <c r="AL9" s="1">
-        <v>1222.320000</v>
+        <v>1222.32</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.121800</v>
+        <v>-89.121799999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>21339.625022</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.927674</v>
+        <v>5.9276739999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1230.210000</v>
+        <v>1230.21</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.155000</v>
+        <v>-101.155</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>21350.305911</v>
+        <v>21350.305910999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.930641</v>
+        <v>5.9306409999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>1240.260000</v>
+        <v>1240.26</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.472000</v>
+        <v>-120.47199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>21361.053717</v>
+        <v>21361.053716999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.933626</v>
+        <v>5.9336260000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.916000</v>
+        <v>-137.916</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>21371.718692</v>
+        <v>21371.718691999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.936589</v>
+        <v>5.9365889999999997</v>
       </c>
       <c r="BF9" s="1">
-        <v>1288.960000</v>
+        <v>1288.96</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.439000</v>
+        <v>-219.43899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>21382.475894</v>
+        <v>21382.475893999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.939577</v>
+        <v>5.9395769999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="BL9" s="1">
-        <v>-354.902000</v>
+        <v>-354.90199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>21393.716727</v>
+        <v>21393.716726999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.942699</v>
+        <v>5.9426990000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.760000</v>
+        <v>1471.76</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.599000</v>
+        <v>-575.59900000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>21404.202153</v>
+        <v>21404.202152999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.945612</v>
+        <v>5.9456119999999997</v>
       </c>
       <c r="BU9" s="1">
-        <v>1602.490000</v>
+        <v>1602.49</v>
       </c>
       <c r="BV9" s="1">
-        <v>-825.022000</v>
+        <v>-825.02200000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>21414.947025</v>
+        <v>21414.947025000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.948596</v>
+        <v>5.9485960000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1753.510000</v>
+        <v>1753.51</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.150000</v>
+        <v>-1097.1500000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>21427.043915</v>
+        <v>21427.043914999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.951957</v>
+        <v>5.9519570000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>2168.670000</v>
+        <v>2168.67</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1757.470000</v>
+        <v>-1757.47</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>21255.813533</v>
       </c>
       <c r="B10" s="1">
-        <v>5.904393</v>
+        <v>5.9043929999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1140.200000</v>
+        <v>1140.2</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.748000</v>
+        <v>-257.74799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>21266.227572</v>
       </c>
       <c r="G10" s="1">
-        <v>5.907285</v>
+        <v>5.9072849999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1161.560000</v>
+        <v>1161.56</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.656000</v>
+        <v>-215.65600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>21276.458547</v>
+        <v>21276.458546999998</v>
       </c>
       <c r="L10" s="1">
-        <v>5.910127</v>
+        <v>5.9101270000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1188.790000</v>
+        <v>1188.79</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.964000</v>
+        <v>-149.964</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>21286.909753</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.913030</v>
+        <v>5.91303</v>
       </c>
       <c r="R10" s="1">
-        <v>1196.340000</v>
+        <v>1196.3399999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.863000</v>
+        <v>-127.863</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>21297.435964</v>
       </c>
       <c r="V10" s="1">
-        <v>5.915954</v>
+        <v>5.9159540000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.049000</v>
+        <v>-107.04900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>21307.915326</v>
+        <v>21307.915325999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.918865</v>
+        <v>5.9188650000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.179800</v>
+        <v>-90.1798</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>21318.471147</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.921798</v>
+        <v>5.9217979999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.690300</v>
+        <v>-85.690299999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>21329.297820</v>
+        <v>21329.29782</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.924805</v>
+        <v>5.9248050000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.122600</v>
+        <v>-89.122600000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>21340.002478</v>
+        <v>21340.002477999999</v>
       </c>
       <c r="AP10" s="1">
         <v>5.927778</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1230.200000</v>
+        <v>1230.2</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.147000</v>
+        <v>-101.14700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>21350.699728</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.930750</v>
+        <v>5.9307499999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.463000</v>
+        <v>-120.46299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>21361.429650</v>
+        <v>21361.429649999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.933730</v>
+        <v>5.9337299999999997</v>
       </c>
       <c r="BA10" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.911000</v>
+        <v>-137.911</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>21372.381315</v>
+        <v>21372.381314999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.936773</v>
+        <v>5.9367729999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1288.950000</v>
+        <v>1288.95</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.450000</v>
+        <v>-219.45</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>21383.181205</v>
+        <v>21383.181205000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.939773</v>
+        <v>5.9397729999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.360000</v>
+        <v>1358.36</v>
       </c>
       <c r="BL10" s="1">
-        <v>-354.867000</v>
+        <v>-354.86700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>21393.848663</v>
+        <v>21393.848663000001</v>
       </c>
       <c r="BO10" s="1">
         <v>5.942736</v>
       </c>
       <c r="BP10" s="1">
-        <v>1471.690000</v>
+        <v>1471.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.649000</v>
+        <v>-575.649</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>21404.328137</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.945647</v>
+        <v>5.9456470000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1602.430000</v>
+        <v>1602.43</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.814000</v>
+        <v>-824.81399999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>21415.394907</v>
+        <v>21415.394907000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.948721</v>
+        <v>5.9487209999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1753.250000</v>
+        <v>1753.25</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.240000</v>
+        <v>-1097.24</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>21427.561243</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.952100</v>
+        <v>5.9520999999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>2168.230000</v>
+        <v>2168.23</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1756.530000</v>
+        <v>-1756.53</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>21256.087822</v>
+        <v>21256.087822000001</v>
       </c>
       <c r="B11" s="1">
-        <v>5.904469</v>
+        <v>5.9044689999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>1140.590000</v>
+        <v>1140.5899999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.534000</v>
+        <v>-257.53399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>21266.517199</v>
+        <v>21266.517199000002</v>
       </c>
       <c r="G11" s="1">
-        <v>5.907366</v>
+        <v>5.9073659999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1160.800000</v>
+        <v>1160.8</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.025000</v>
+        <v>-216.02500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>21276.803234</v>
+        <v>21276.803233999999</v>
       </c>
       <c r="L11" s="1">
-        <v>5.910223</v>
+        <v>5.9102230000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1189.060000</v>
+        <v>1189.06</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.830000</v>
+        <v>-149.83000000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>21287.259396</v>
+        <v>21287.259396000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.913128</v>
+        <v>5.9131280000000004</v>
       </c>
       <c r="R11" s="1">
-        <v>1196.250000</v>
+        <v>1196.25</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.817000</v>
+        <v>-127.81699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>21297.780038</v>
+        <v>21297.780038000001</v>
       </c>
       <c r="V11" s="1">
-        <v>5.916050</v>
+        <v>5.9160500000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>1203.400000</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.065000</v>
+        <v>-107.065</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>21308.612201</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.919059</v>
+        <v>5.9190589999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1210.660000</v>
+        <v>1210.6600000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.061500</v>
+        <v>-90.061499999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>21319.164554</v>
+        <v>21319.164553999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.921990</v>
+        <v>5.9219900000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.669900</v>
+        <v>-85.669899999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>21329.645020</v>
+        <v>21329.64502</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.924901</v>
+        <v>5.9249010000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.138500</v>
+        <v>-89.138499999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>21340.363565</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.927879</v>
+        <v>5.9278789999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1230.240000</v>
+        <v>1230.24</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.128000</v>
+        <v>-101.128</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>21351.059828</v>
+        <v>21351.059828000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.930850</v>
+        <v>5.9308500000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>1240.260000</v>
+        <v>1240.26</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.480000</v>
+        <v>-120.48</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>21362.091809</v>
+        <v>21362.091809000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.933914</v>
+        <v>5.9339139999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.906000</v>
+        <v>-137.90600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>21372.800474</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.936889</v>
+        <v>5.9368889999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.431000</v>
+        <v>-219.43100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>21383.625620</v>
+        <v>21383.625619999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.939896</v>
+        <v>5.9398960000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.340000</v>
+        <v>1358.34</v>
       </c>
       <c r="BL11" s="1">
-        <v>-354.943000</v>
+        <v>-354.94299999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>21394.259352</v>
+        <v>21394.259352000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.942850</v>
+        <v>5.94285</v>
       </c>
       <c r="BP11" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.654000</v>
+        <v>-575.654</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>21404.738862</v>
+        <v>21404.738861999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.945761</v>
+        <v>5.9457610000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1602.330000</v>
+        <v>1602.33</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.954000</v>
+        <v>-824.95399999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>21415.828378</v>
+        <v>21415.828377999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.948841</v>
+        <v>5.9488409999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1753.520000</v>
+        <v>1753.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.290000</v>
+        <v>-1097.29</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>21428.112298</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.952253</v>
+        <v>5.9522529999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2169.090000</v>
+        <v>2169.09</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1756.220000</v>
+        <v>-1756.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>21256.430589</v>
       </c>
       <c r="B12" s="1">
-        <v>5.904564</v>
+        <v>5.9045639999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>1140.130000</v>
+        <v>1140.1300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.828000</v>
+        <v>-257.82799999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>21266.863941</v>
       </c>
       <c r="G12" s="1">
-        <v>5.907462</v>
+        <v>5.9074619999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1161.410000</v>
+        <v>1161.4100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.922000</v>
+        <v>-215.922</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>21277.148449</v>
       </c>
       <c r="L12" s="1">
-        <v>5.910319</v>
+        <v>5.9103190000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>1188.590000</v>
+        <v>1188.5899999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.668000</v>
+        <v>-149.66800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>21287.957267</v>
+        <v>21287.957267000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.913321</v>
+        <v>5.9133209999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1196.280000</v>
+        <v>1196.28</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.805000</v>
+        <v>-127.80500000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>21298.466534</v>
+        <v>21298.466533999999</v>
       </c>
       <c r="V12" s="1">
-        <v>5.916241</v>
+        <v>5.9162410000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.959000</v>
+        <v>-106.959</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>21308.960392</v>
+        <v>21308.960392000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.919156</v>
+        <v>5.9191560000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1210.770000</v>
+        <v>1210.77</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.010500</v>
+        <v>-90.010499999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>21319.507289</v>
+        <v>21319.507289000001</v>
       </c>
       <c r="AF12" s="1">
         <v>5.922085</v>
       </c>
       <c r="AG12" s="1">
-        <v>1215.320000</v>
+        <v>1215.32</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.740300</v>
+        <v>-85.740300000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>21329.993708</v>
+        <v>21329.993708000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.924998</v>
+        <v>5.9249980000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.154900</v>
+        <v>-89.154899999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>21341.023741</v>
+        <v>21341.023741000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.928062</v>
+        <v>5.9280619999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1230.240000</v>
+        <v>1230.24</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.128000</v>
+        <v>-101.128</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>21351.731256</v>
+        <v>21351.731255999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.931036</v>
+        <v>5.9310359999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.468000</v>
+        <v>-120.468</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>21362.517378</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.934033</v>
+        <v>5.9340330000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.919000</v>
+        <v>-137.91900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>21373.190786</v>
+        <v>21373.190785999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.936997</v>
+        <v>5.9369969999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1288.960000</v>
+        <v>1288.96</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.463000</v>
+        <v>-219.46299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>21384.028372</v>
+        <v>21384.028372000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.940008</v>
+        <v>5.9400079999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.350000</v>
+        <v>1358.35</v>
       </c>
       <c r="BL12" s="1">
-        <v>-354.874000</v>
+        <v>-354.87400000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>21394.656646</v>
+        <v>21394.656645999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.942960</v>
+        <v>5.9429600000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1471.690000</v>
+        <v>1471.69</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.669000</v>
+        <v>-575.66899999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>21405.234361</v>
+        <v>21405.234360999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.945898</v>
+        <v>5.9458979999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>1602.210000</v>
+        <v>1602.21</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.956000</v>
+        <v>-824.95600000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>21416.249514</v>
+        <v>21416.249513999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.948958</v>
+        <v>5.9489580000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1753.360000</v>
+        <v>1753.36</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.230000</v>
+        <v>-1097.23</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>21428.642057</v>
+        <v>21428.642057000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.952401</v>
+        <v>5.9524010000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2168.890000</v>
+        <v>2168.89</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1757.810000</v>
+        <v>-1757.81</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>21256.772899</v>
       </c>
       <c r="B13" s="1">
-        <v>5.904659</v>
+        <v>5.9046589999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>1140.430000</v>
+        <v>1140.43</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.931000</v>
+        <v>-257.93099999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>21267.207134</v>
       </c>
       <c r="G13" s="1">
-        <v>5.907558</v>
+        <v>5.9075579999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1161.910000</v>
+        <v>1161.9100000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.843000</v>
+        <v>-215.84299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>21277.843344</v>
+        <v>21277.843344000001</v>
       </c>
       <c r="L13" s="1">
-        <v>5.910512</v>
+        <v>5.9105119999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1188.670000</v>
+        <v>1188.67</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.071000</v>
+        <v>-150.071</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>21288.304466</v>
+        <v>21288.304466000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.913418</v>
+        <v>5.9134180000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1196.300000</v>
+        <v>1196.3</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.783000</v>
+        <v>-127.783</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>21298.809765</v>
+        <v>21298.809765000002</v>
       </c>
       <c r="V13" s="1">
-        <v>5.916336</v>
+        <v>5.9163360000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>1203.370000</v>
+        <v>1203.3699999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.993000</v>
+        <v>-106.99299999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>21309.309544</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.919253</v>
+        <v>5.9192530000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1210.720000</v>
+        <v>1210.72</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.130900</v>
+        <v>-90.130899999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>21320.164488</v>
+        <v>21320.164487999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.922268</v>
+        <v>5.9222679999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.711200</v>
+        <v>-85.711200000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>21330.640522</v>
+        <v>21330.640522000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.925178</v>
+        <v>5.9251779999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.171000</v>
+        <v>-89.171000000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>21341.443891</v>
+        <v>21341.443890999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.928179</v>
+        <v>5.9281790000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.136000</v>
+        <v>-101.136</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>21352.188227</v>
+        <v>21352.188226999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.931163</v>
+        <v>5.9311629999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.466000</v>
+        <v>-120.46599999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>21362.892353</v>
+        <v>21362.892352999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.934137</v>
+        <v>5.9341369999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.933000</v>
+        <v>-137.93299999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>21373.551874</v>
+        <v>21373.551874000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.937098</v>
+        <v>5.9370979999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.461000</v>
+        <v>-219.46100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>21384.403347</v>
+        <v>21384.403346999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.940112</v>
+        <v>5.9401120000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.380000</v>
+        <v>1358.38</v>
       </c>
       <c r="BL13" s="1">
-        <v>-354.952000</v>
+        <v>-354.952</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>21395.081223</v>
+        <v>21395.081223000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.943078</v>
+        <v>5.9430779999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.603000</v>
+        <v>-575.60299999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>21405.997672</v>
+        <v>21405.997672000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.946110</v>
+        <v>5.94611</v>
       </c>
       <c r="BU13" s="1">
-        <v>1602.140000</v>
+        <v>1602.14</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.847000</v>
+        <v>-824.84699999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>21416.669593</v>
+        <v>21416.669592999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.949075</v>
+        <v>5.9490749999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1753.390000</v>
+        <v>1753.39</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.240000</v>
+        <v>-1097.24</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>21429.159354</v>
+        <v>21429.159353999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.952544</v>
+        <v>5.9525439999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>2170.430000</v>
+        <v>2170.4299999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1758.150000</v>
+        <v>-1758.15</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>21257.454796</v>
+        <v>21257.454796000002</v>
       </c>
       <c r="B14" s="1">
-        <v>5.904849</v>
+        <v>5.9048489999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>1140.240000</v>
+        <v>1140.24</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.706000</v>
+        <v>-257.70600000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>21267.894126</v>
+        <v>21267.894125999999</v>
       </c>
       <c r="G14" s="1">
-        <v>5.907748</v>
+        <v>5.9077479999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1161.580000</v>
+        <v>1161.58</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.084000</v>
+        <v>-216.084</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>21278.187568</v>
+        <v>21278.187568000001</v>
       </c>
       <c r="L14" s="1">
-        <v>5.910608</v>
+        <v>5.9106079999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1188.540000</v>
+        <v>1188.54</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.737000</v>
+        <v>-149.73699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>21288.655138</v>
+        <v>21288.655137999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.913515</v>
+        <v>5.9135150000000003</v>
       </c>
       <c r="R14" s="1">
-        <v>1196.320000</v>
+        <v>1196.32</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.791000</v>
+        <v>-127.791</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>21299.155482</v>
+        <v>21299.155481999998</v>
       </c>
       <c r="V14" s="1">
-        <v>5.916432</v>
+        <v>5.9164320000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.097000</v>
+        <v>-107.09699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>21309.957847</v>
+        <v>21309.957847000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.919433</v>
+        <v>5.9194329999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1210.650000</v>
+        <v>1210.6500000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.176800</v>
+        <v>-90.1768</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>21320.539992</v>
+        <v>21320.539992000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.922372</v>
+        <v>5.9223720000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1215.330000</v>
+        <v>1215.33</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.720200</v>
+        <v>-85.720200000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>21331.038778</v>
+        <v>21331.038777999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.925289</v>
+        <v>5.9252890000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.145700</v>
+        <v>-89.145700000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>21341.826302</v>
+        <v>21341.826302000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.928285</v>
+        <v>5.9282849999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1230.260000</v>
+        <v>1230.26</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.142000</v>
+        <v>-101.142</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>21352.555230</v>
+        <v>21352.555230000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.931265</v>
+        <v>5.9312649999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1240.230000</v>
+        <v>1240.23</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.488000</v>
+        <v>-120.488</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>21363.283201</v>
+        <v>21363.283200999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.934245</v>
+        <v>5.9342449999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.940000</v>
+        <v>-137.94</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>21373.970497</v>
+        <v>21373.970496999998</v>
       </c>
       <c r="BE14" s="1">
         <v>5.937214</v>
       </c>
       <c r="BF14" s="1">
-        <v>1288.930000</v>
+        <v>1288.93</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.429000</v>
+        <v>-219.429</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>21384.813570</v>
+        <v>21384.813569999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>5.940226</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.380000</v>
+        <v>1358.38</v>
       </c>
       <c r="BL14" s="1">
-        <v>-354.884000</v>
+        <v>-354.88400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>21395.475541</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.943188</v>
+        <v>5.9431880000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1471.750000</v>
+        <v>1471.75</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.659000</v>
+        <v>-575.65899999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>21406.430184</v>
+        <v>21406.430184000001</v>
       </c>
       <c r="BT14" s="1">
         <v>5.946231</v>
       </c>
       <c r="BU14" s="1">
-        <v>1602.100000</v>
+        <v>1602.1</v>
       </c>
       <c r="BV14" s="1">
-        <v>-824.994000</v>
+        <v>-824.99400000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>21417.098137</v>
+        <v>21417.098137000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.949194</v>
+        <v>5.9491940000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1097.250000</v>
+        <v>-1097.25</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>21429.679160</v>
+        <v>21429.67916</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.952689</v>
+        <v>5.9526890000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>2171.050000</v>
+        <v>2171.0500000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1756.110000</v>
+        <v>-1756.11</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>21257.797035</v>
       </c>
       <c r="B15" s="1">
-        <v>5.904944</v>
+        <v>5.9049440000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>1140.170000</v>
+        <v>1140.17</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.725000</v>
+        <v>-257.72500000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>21268.273534</v>
       </c>
       <c r="G15" s="1">
-        <v>5.907854</v>
+        <v>5.9078540000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1161.230000</v>
+        <v>1161.23</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.405000</v>
+        <v>-216.405</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>21278.536257</v>
       </c>
       <c r="L15" s="1">
-        <v>5.910705</v>
+        <v>5.9107050000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1188.440000</v>
+        <v>1188.44</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.802000</v>
+        <v>-149.80199999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>21289.304434</v>
+        <v>21289.304434000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.913696</v>
+        <v>5.9136959999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1196.310000</v>
+        <v>1196.31</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.852000</v>
+        <v>-127.852</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>21299.804211</v>
+        <v>21299.804210999999</v>
       </c>
       <c r="V15" s="1">
-        <v>5.916612</v>
+        <v>5.9166119999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.029000</v>
+        <v>-107.029</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>21310.353126</v>
+        <v>21310.353126000002</v>
       </c>
       <c r="AA15" s="1">
         <v>5.919543</v>
       </c>
       <c r="AB15" s="1">
-        <v>1210.520000</v>
+        <v>1210.52</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.079100</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>21320.883869</v>
+        <v>21320.883869000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.922468</v>
+        <v>5.9224680000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.750700</v>
+        <v>-85.750699999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>21331.387002</v>
+        <v>21331.387001999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.925385</v>
+        <v>5.9253850000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.180300</v>
+        <v>-89.180300000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>21342.184909</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.928385</v>
+        <v>5.9283849999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1230.250000</v>
+        <v>1230.25</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.153000</v>
+        <v>-101.15300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>21352.917805</v>
+        <v>21352.917805000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.931366</v>
+        <v>5.9313659999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.480000</v>
+        <v>-120.48</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>21363.704831</v>
+        <v>21363.704830999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.934362</v>
+        <v>5.9343620000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1248.760000</v>
+        <v>1248.76</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.910000</v>
+        <v>-137.91</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>21374.272588</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.937298</v>
+        <v>5.9372980000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1288.920000</v>
+        <v>1288.92</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.428000</v>
+        <v>-219.428</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>21385.180110</v>
+        <v>21385.180110000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.940328</v>
+        <v>5.9403280000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL15" s="1">
-        <v>-354.919000</v>
+        <v>-354.91899999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>21395.893988</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.943304</v>
+        <v>5.9433040000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.621000</v>
+        <v>-575.62099999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>21406.842358</v>
+        <v>21406.842358000002</v>
       </c>
       <c r="BT15" s="1">
         <v>5.946345</v>
       </c>
       <c r="BU15" s="1">
-        <v>1602.020000</v>
+        <v>1602.02</v>
       </c>
       <c r="BV15" s="1">
-        <v>-825.016000</v>
+        <v>-825.01599999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>21417.512793</v>
+        <v>21417.512793000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.949309</v>
+        <v>5.9493090000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1753.300000</v>
+        <v>1753.3</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1097.180000</v>
+        <v>-1097.18</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>21430.194008</v>
+        <v>21430.194007999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.952832</v>
+        <v>5.9528319999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2171.090000</v>
+        <v>2171.09</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1756.910000</v>
+        <v>-1756.91</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>21258.139770</v>
+        <v>21258.139770000002</v>
       </c>
       <c r="B16" s="1">
-        <v>5.905039</v>
+        <v>5.9050390000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1140.210000</v>
+        <v>1140.21</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.485000</v>
+        <v>-257.48500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>21268.904445</v>
@@ -4094,2007 +4510,2007 @@
         <v>5.908029</v>
       </c>
       <c r="H16" s="1">
-        <v>1161.760000</v>
+        <v>1161.76</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.813000</v>
+        <v>-215.81299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>21279.185520</v>
+        <v>21279.185519999999</v>
       </c>
       <c r="L16" s="1">
-        <v>5.910885</v>
+        <v>5.9108850000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>1188.690000</v>
+        <v>1188.69</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.851000</v>
+        <v>-149.851</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>21289.699712</v>
+        <v>21289.699712000001</v>
       </c>
       <c r="Q16" s="1">
         <v>5.913805</v>
       </c>
       <c r="R16" s="1">
-        <v>1196.270000</v>
+        <v>1196.27</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.847000</v>
+        <v>-127.84699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>21300.183651</v>
+        <v>21300.183650999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.916718</v>
+        <v>5.9167180000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>1203.360000</v>
+        <v>1203.3599999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.044000</v>
+        <v>-107.044</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>21310.704293</v>
+        <v>21310.704292999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.919640</v>
+        <v>5.9196400000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1210.950000</v>
+        <v>1210.95</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.993600</v>
+        <v>-89.993600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>21321.227911</v>
+        <v>21321.227911000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.922563</v>
+        <v>5.9225630000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.663100</v>
+        <v>-85.6631</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>21331.739626</v>
+        <v>21331.739625999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.925483</v>
+        <v>5.9254829999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.165600</v>
+        <v>-89.165599999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>21342.597051</v>
+        <v>21342.597051000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.928499</v>
+        <v>5.9284990000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1230.230000</v>
+        <v>1230.23</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.136000</v>
+        <v>-101.136</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>21353.331162</v>
+        <v>21353.331161999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.931481</v>
+        <v>5.9314809999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.478000</v>
+        <v>-120.47799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>21364.000942</v>
+        <v>21364.000941999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.934445</v>
+        <v>5.9344450000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.903000</v>
+        <v>-137.90299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>21374.634181</v>
+        <v>21374.634181000001</v>
       </c>
       <c r="BE16" s="1">
         <v>5.937398</v>
       </c>
       <c r="BF16" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.444000</v>
+        <v>-219.44399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>21385.554067</v>
+        <v>21385.554067000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.940432</v>
+        <v>5.9404320000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.340000</v>
+        <v>1358.34</v>
       </c>
       <c r="BL16" s="1">
-        <v>-354.870000</v>
+        <v>-354.87</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>21396.293444</v>
+        <v>21396.293443999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.943415</v>
+        <v>5.9434149999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1471.690000</v>
+        <v>1471.69</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.588000</v>
+        <v>-575.58799999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>21407.260982</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.946461</v>
+        <v>5.9464610000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1601.990000</v>
+        <v>1601.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-825.097000</v>
+        <v>-825.09699999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>21417.966631</v>
+        <v>21417.966630999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.949435</v>
+        <v>5.9494350000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1753.230000</v>
+        <v>1753.23</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1097.210000</v>
+        <v>-1097.21</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>21430.747079</v>
+        <v>21430.747079000001</v>
       </c>
       <c r="CD16" s="1">
         <v>5.952985</v>
       </c>
       <c r="CE16" s="1">
-        <v>2170.450000</v>
+        <v>2170.4499999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1757.590000</v>
+        <v>-1757.59</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>21258.789385</v>
       </c>
       <c r="B17" s="1">
-        <v>5.905219</v>
+        <v>5.9052189999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1140.370000</v>
+        <v>1140.3699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.562000</v>
+        <v>-257.56200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>21269.277437</v>
+        <v>21269.277437000001</v>
       </c>
       <c r="G17" s="1">
-        <v>5.908133</v>
+        <v>5.9081330000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>1161.590000</v>
+        <v>1161.5899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.796000</v>
+        <v>-215.79599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>21279.567934</v>
+        <v>21279.567933999999</v>
       </c>
       <c r="L17" s="1">
-        <v>5.910991</v>
+        <v>5.9109910000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1188.580000</v>
+        <v>1188.58</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.592000</v>
+        <v>-149.59200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>21290.050422</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.913903</v>
+        <v>5.9139030000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1196.270000</v>
+        <v>1196.27</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.808000</v>
+        <v>-127.80800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>21300.528371</v>
       </c>
       <c r="V17" s="1">
-        <v>5.916813</v>
+        <v>5.9168130000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.102000</v>
+        <v>-107.102</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>21311.052980</v>
+        <v>21311.05298</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.919737</v>
+        <v>5.9197369999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>1210.730000</v>
+        <v>1210.73</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.138200</v>
+        <v>-90.138199999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>21321.641110</v>
+        <v>21321.64111</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.922678</v>
+        <v>5.9226780000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.863600</v>
+        <v>-85.863600000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>21332.158782</v>
+        <v>21332.158781999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.925600</v>
+        <v>5.9256000000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.162900</v>
+        <v>-89.162899999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>21342.906591</v>
+        <v>21342.906590999999</v>
       </c>
       <c r="AP17" s="1">
         <v>5.928585</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1230.200000</v>
+        <v>1230.2</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.147000</v>
+        <v>-101.14700000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>21353.647421</v>
+        <v>21353.647421000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.931569</v>
+        <v>5.9315689999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.502000</v>
+        <v>-120.502</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>21364.358030</v>
+        <v>21364.358029999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.934544</v>
+        <v>5.9345439999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.928000</v>
+        <v>-137.928</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>21374.999200</v>
+        <v>21374.999199999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.937500</v>
+        <v>5.9375</v>
       </c>
       <c r="BF17" s="1">
-        <v>1288.910000</v>
+        <v>1288.9100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.440000</v>
+        <v>-219.44</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>21385.928203</v>
+        <v>21385.928202999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.940536</v>
+        <v>5.9405359999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.320000</v>
+        <v>1358.32</v>
       </c>
       <c r="BL17" s="1">
-        <v>-354.923000</v>
+        <v>-354.923</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>21396.715575</v>
+        <v>21396.715574999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.943532</v>
+        <v>5.9435320000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1471.710000</v>
+        <v>1471.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.644000</v>
+        <v>-575.64400000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>21407.673189</v>
+        <v>21407.673189000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.946576</v>
+        <v>5.9465760000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1601.950000</v>
+        <v>1601.95</v>
       </c>
       <c r="BV17" s="1">
-        <v>-825.097000</v>
+        <v>-825.09699999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>21418.413528</v>
+        <v>21418.413528000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.949559</v>
+        <v>5.9495589999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1753.450000</v>
+        <v>1753.45</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1097.270000</v>
+        <v>-1097.27</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>21431.277767</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.953133</v>
+        <v>5.9531330000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2170.410000</v>
+        <v>2170.41</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1756.010000</v>
+        <v>-1756.01</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>21259.163049</v>
+        <v>21259.163048999999</v>
       </c>
       <c r="B18" s="1">
-        <v>5.905323</v>
+        <v>5.9053230000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1140.270000</v>
+        <v>1140.27</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.654000</v>
+        <v>-257.654</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>21269.625628</v>
+        <v>21269.625628000002</v>
       </c>
       <c r="G18" s="1">
-        <v>5.908229</v>
+        <v>5.9082290000000004</v>
       </c>
       <c r="H18" s="1">
-        <v>1161.730000</v>
+        <v>1161.73</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.214000</v>
+        <v>-216.214</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>21279.919102</v>
       </c>
       <c r="L18" s="1">
-        <v>5.911089</v>
+        <v>5.9110889999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1188.860000</v>
+        <v>1188.8599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.742000</v>
+        <v>-149.74199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>21290.398080</v>
+        <v>21290.398079999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.913999</v>
+        <v>5.9139989999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1196.320000</v>
+        <v>1196.32</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.793000</v>
+        <v>-127.79300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>21300.873091</v>
+        <v>21300.873091000001</v>
       </c>
       <c r="V18" s="1">
-        <v>5.916909</v>
+        <v>5.9169090000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>1203.350000</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.917000</v>
+        <v>-106.917</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>21311.462677</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.919851</v>
+        <v>5.9198510000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.236500</v>
+        <v>-90.236500000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>21321.931238</v>
+        <v>21321.931238000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.922759</v>
+        <v>5.9227590000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.691700</v>
+        <v>-85.691699999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>21332.446424</v>
+        <v>21332.446424000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.925680</v>
+        <v>5.9256799999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1222.330000</v>
+        <v>1222.33</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.148200</v>
+        <v>-89.148200000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>21343.266154</v>
+        <v>21343.266154000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.928685</v>
+        <v>5.9286849999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1230.230000</v>
+        <v>1230.23</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.140000</v>
+        <v>-101.14</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>21354.014957</v>
+        <v>21354.014956999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.931671</v>
+        <v>5.9316709999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1240.230000</v>
+        <v>1240.23</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.472000</v>
+        <v>-120.47199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>21364.717133</v>
+        <v>21364.717132999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.934644</v>
+        <v>5.9346439999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.905000</v>
+        <v>-137.905</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>21375.718896</v>
+        <v>21375.718895999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.937700</v>
+        <v>5.9377000000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1288.930000</v>
+        <v>1288.93</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.435000</v>
+        <v>-219.435</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>21386.679031</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.940744</v>
+        <v>5.9407439999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.370000</v>
+        <v>1358.37</v>
       </c>
       <c r="BL18" s="1">
-        <v>-354.864000</v>
+        <v>-354.86399999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>21397.108899</v>
+        <v>21397.108898999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.943641</v>
+        <v>5.9436410000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.645000</v>
+        <v>-575.64499999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>21408.084837</v>
+        <v>21408.084836999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.946690</v>
+        <v>5.9466900000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1601.910000</v>
+        <v>1601.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-825.232000</v>
+        <v>-825.23199999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>21418.875150</v>
+        <v>21418.87515</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.949688</v>
+        <v>5.9496880000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1753.470000</v>
+        <v>1753.47</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.260000</v>
+        <v>-1097.26</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>21432.100630</v>
+        <v>21432.100630000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.953361</v>
+        <v>5.9533610000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2168.210000</v>
+        <v>2168.21</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1756.420000</v>
+        <v>-1756.42</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>21259.507738</v>
       </c>
       <c r="B19" s="1">
-        <v>5.905419</v>
+        <v>5.9054190000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1140.160000</v>
+        <v>1140.1600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.444000</v>
+        <v>-257.44400000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>21269.971835</v>
       </c>
       <c r="G19" s="1">
-        <v>5.908326</v>
+        <v>5.9083259999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>1161.540000</v>
+        <v>1161.54</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.655000</v>
+        <v>-215.655</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>21280.264813</v>
+        <v>21280.264813000002</v>
       </c>
       <c r="L19" s="1">
-        <v>5.911185</v>
+        <v>5.9111849999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>1188.650000</v>
+        <v>1188.6500000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.774000</v>
+        <v>-149.774</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>21290.816207</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.914116</v>
+        <v>5.9141159999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1196.320000</v>
+        <v>1196.32</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.810000</v>
+        <v>-127.81</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>21301.304114</v>
+        <v>21301.304113999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.917029</v>
+        <v>5.9170290000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.903000</v>
+        <v>-106.90300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>21311.752340</v>
+        <v>21311.752339999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.919931</v>
+        <v>5.9199310000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.967900</v>
+        <v>-89.9679</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>21322.273973</v>
+        <v>21322.273972999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.922854</v>
+        <v>5.9228540000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.739600</v>
+        <v>-85.739599999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>21332.795608</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.925777</v>
+        <v>5.9257770000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.161200</v>
+        <v>-89.161199999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>21343.625753</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.928785</v>
+        <v>5.9287850000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1230.230000</v>
+        <v>1230.23</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.181000</v>
+        <v>-101.181</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>21354.730187</v>
+        <v>21354.730187000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.931869</v>
+        <v>5.9318689999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.468000</v>
+        <v>-120.468</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>21365.436829</v>
+        <v>21365.436828999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>5.934844</v>
       </c>
       <c r="BA19" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.914000</v>
+        <v>-137.91399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>21376.079487</v>
+        <v>21376.079486999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.937800</v>
+        <v>5.9378000000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1288.920000</v>
+        <v>1288.92</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.425000</v>
+        <v>-219.42500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>21387.054006</v>
+        <v>21387.054005999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.940848</v>
+        <v>5.9408479999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.320000</v>
+        <v>1358.32</v>
       </c>
       <c r="BL19" s="1">
-        <v>-354.960000</v>
+        <v>-354.96</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>21397.531954</v>
+        <v>21397.531953999998</v>
       </c>
       <c r="BO19" s="1">
         <v>5.943759</v>
       </c>
       <c r="BP19" s="1">
-        <v>1471.750000</v>
+        <v>1471.75</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.564000</v>
+        <v>-575.56399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>21408.800563</v>
+        <v>21408.800563000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.946889</v>
+        <v>5.9468889999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1601.960000</v>
+        <v>1601.96</v>
       </c>
       <c r="BV19" s="1">
-        <v>-825.206000</v>
+        <v>-825.20600000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>21419.629254</v>
+        <v>21419.629253999999</v>
       </c>
       <c r="BY19" s="1">
         <v>5.949897</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1753.400000</v>
+        <v>1753.4</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>21432.314404</v>
+        <v>21432.314404000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.953421</v>
+        <v>5.9534209999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>2169.450000</v>
+        <v>2169.4499999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1758.530000</v>
+        <v>-1758.53</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>21259.851464</v>
+        <v>21259.851463999999</v>
       </c>
       <c r="B20" s="1">
-        <v>5.905514</v>
+        <v>5.9055140000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1140.220000</v>
+        <v>1140.22</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.763000</v>
+        <v>-257.76299999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>21270.394462</v>
       </c>
       <c r="G20" s="1">
-        <v>5.908443</v>
+        <v>5.9084430000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1162.500000</v>
+        <v>1162.5</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.687000</v>
+        <v>-215.68700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>21280.675005</v>
+        <v>21280.675005000001</v>
       </c>
       <c r="L20" s="1">
-        <v>5.911299</v>
+        <v>5.9112989999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>1188.460000</v>
+        <v>1188.46</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.883000</v>
+        <v>-149.88300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>21291.102399</v>
+        <v>21291.102398999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.914195</v>
+        <v>5.9141950000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>1196.340000</v>
+        <v>1196.3399999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.866000</v>
+        <v>-127.866</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>21301.581414</v>
       </c>
       <c r="V20" s="1">
-        <v>5.917106</v>
+        <v>5.9171060000000004</v>
       </c>
       <c r="W20" s="1">
-        <v>1203.380000</v>
+        <v>1203.3800000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.980000</v>
+        <v>-106.98</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>21312.102019</v>
+        <v>21312.102019000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.920028</v>
+        <v>5.9200280000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>1210.700000</v>
+        <v>1210.7</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.994500</v>
+        <v>-89.994500000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>21322.618695</v>
+        <v>21322.618695000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.922950</v>
+        <v>5.9229500000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1215.380000</v>
+        <v>1215.3800000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.757300</v>
+        <v>-85.757300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>21333.144295</v>
+        <v>21333.144294999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.925873</v>
+        <v>5.9258730000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1222.300000</v>
+        <v>1222.3</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.133000</v>
+        <v>-89.132999999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>21344.348591</v>
+        <v>21344.348591000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.928986</v>
+        <v>5.9289860000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1230.200000</v>
+        <v>1230.2</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.185000</v>
+        <v>-101.185</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>21355.132474</v>
+        <v>21355.132473999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.931981</v>
+        <v>5.9319810000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.495000</v>
+        <v>-120.495</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>21365.793452</v>
+        <v>21365.793452000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.934943</v>
+        <v>5.9349429999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.914000</v>
+        <v>-137.91399999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>21376.439118</v>
+        <v>21376.439117999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.937900</v>
+        <v>5.9379</v>
       </c>
       <c r="BF20" s="1">
-        <v>1288.930000</v>
+        <v>1288.93</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.458000</v>
+        <v>-219.458</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>21387.433444</v>
+        <v>21387.433443999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.940954</v>
+        <v>5.9409539999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.350000</v>
+        <v>1358.35</v>
       </c>
       <c r="BL20" s="1">
-        <v>-354.878000</v>
+        <v>-354.87799999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>21398.239747</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.943955</v>
+        <v>5.9439549999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.720000</v>
+        <v>1471.72</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.596000</v>
+        <v>-575.596</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>21408.914147</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.946921</v>
+        <v>5.9469209999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1601.830000</v>
+        <v>1601.83</v>
       </c>
       <c r="BV20" s="1">
-        <v>-825.241000</v>
+        <v>-825.24099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>21419.771077</v>
+        <v>21419.771077000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.949936</v>
+        <v>5.9499360000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1753.300000</v>
+        <v>1753.3</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1097.240000</v>
+        <v>-1097.24</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>21432.831268</v>
+        <v>21432.831268000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.953564</v>
+        <v>5.9535640000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2168.710000</v>
+        <v>2168.71</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1757.590000</v>
+        <v>-1757.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>21260.272633</v>
       </c>
       <c r="B21" s="1">
-        <v>5.905631</v>
+        <v>5.9056309999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>1140.390000</v>
+        <v>1140.3900000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.918000</v>
+        <v>-257.91800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>21270.669706</v>
+        <v>21270.669706000001</v>
       </c>
       <c r="G21" s="1">
-        <v>5.908519</v>
+        <v>5.9085190000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1160.900000</v>
+        <v>1160.9000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.241000</v>
+        <v>-216.24100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>21280.975614</v>
+        <v>21280.975613999999</v>
       </c>
       <c r="L21" s="1">
-        <v>5.911382</v>
+        <v>5.9113819999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>1188.480000</v>
+        <v>1188.48</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.161000</v>
+        <v>-150.161</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>21291.452575</v>
+        <v>21291.452574999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.914292</v>
+        <v>5.9142919999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>1196.330000</v>
+        <v>1196.33</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.833000</v>
+        <v>-127.833</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>21301.923649</v>
       </c>
       <c r="V21" s="1">
-        <v>5.917201</v>
+        <v>5.9172010000000004</v>
       </c>
       <c r="W21" s="1">
-        <v>1203.400000</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.973000</v>
+        <v>-106.973</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>21312.450707</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.920125</v>
+        <v>5.9201249999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>1210.810000</v>
+        <v>1210.81</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.061800</v>
+        <v>-90.061800000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>21323.305156</v>
+        <v>21323.305155999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.923140</v>
+        <v>5.9231400000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1215.400000</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.693000</v>
+        <v>-85.692999999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>21333.836743</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.926066</v>
+        <v>5.9260659999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1222.310000</v>
+        <v>1222.31</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.172600</v>
+        <v>-89.172600000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>21344.707561</v>
+        <v>21344.707560999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.929085</v>
+        <v>5.9290849999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1230.210000</v>
+        <v>1230.21</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.145000</v>
+        <v>-101.145</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>21355.498489</v>
+        <v>21355.498489000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.932083</v>
+        <v>5.9320830000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.470000</v>
+        <v>-120.47</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>21366.152555</v>
+        <v>21366.152555000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.935042</v>
+        <v>5.9350420000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.923000</v>
+        <v>-137.923</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>21377.101245</v>
+        <v>21377.101245000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.938084</v>
+        <v>5.9380839999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1288.920000</v>
+        <v>1288.92</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.458000</v>
+        <v>-219.458</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>21388.227008</v>
+        <v>21388.227008000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.941174</v>
+        <v>5.9411740000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.320000</v>
+        <v>1358.32</v>
       </c>
       <c r="BL21" s="1">
-        <v>-354.839000</v>
+        <v>-354.839</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>21398.366753</v>
+        <v>21398.366752999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.943991</v>
+        <v>5.9439909999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.690000</v>
+        <v>1471.69</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.656000</v>
+        <v>-575.65599999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>21409.352611</v>
+        <v>21409.352610999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.947042</v>
+        <v>5.9470419999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1601.930000</v>
+        <v>1601.93</v>
       </c>
       <c r="BV21" s="1">
-        <v>-825.337000</v>
+        <v>-825.33699999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>21420.191892</v>
+        <v>21420.191891999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.950053</v>
+        <v>5.9500529999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1753.340000</v>
+        <v>1753.34</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1097.200000</v>
+        <v>-1097.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>21433.382788</v>
+        <v>21433.382787999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.953717</v>
+        <v>5.9537170000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2168.350000</v>
+        <v>2168.35</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1755.810000</v>
+        <v>-1755.81</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>21260.549863</v>
       </c>
       <c r="B22" s="1">
-        <v>5.905708</v>
+        <v>5.9057079999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>1140.410000</v>
+        <v>1140.4100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.664000</v>
+        <v>-257.66399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>21271.011449</v>
+        <v>21271.011449000001</v>
       </c>
       <c r="G22" s="1">
         <v>5.908614</v>
       </c>
       <c r="H22" s="1">
-        <v>1161.400000</v>
+        <v>1161.4000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.315000</v>
+        <v>-216.315</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>21281.318812</v>
+        <v>21281.318812000001</v>
       </c>
       <c r="L22" s="1">
-        <v>5.911477</v>
+        <v>5.9114769999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>1188.310000</v>
+        <v>1188.31</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.032000</v>
+        <v>-150.03200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>21291.799279</v>
+        <v>21291.799278999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.914389</v>
+        <v>5.9143889999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1196.250000</v>
+        <v>1196.25</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.847000</v>
+        <v>-127.84699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>21302.409697</v>
+        <v>21302.409696999999</v>
       </c>
       <c r="V22" s="1">
-        <v>5.917336</v>
+        <v>5.9173359999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.039000</v>
+        <v>-107.039</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>21313.148578</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.920319</v>
+        <v>5.9203190000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.064400</v>
+        <v>-90.064400000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>21323.646900</v>
+        <v>21323.6469</v>
       </c>
       <c r="AF22" s="1">
         <v>5.923235</v>
       </c>
       <c r="AG22" s="1">
-        <v>1215.370000</v>
+        <v>1215.3699999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.740100</v>
+        <v>-85.740099999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>21334.189398</v>
+        <v>21334.189397999999</v>
       </c>
       <c r="AK22" s="1">
         <v>5.926164</v>
       </c>
       <c r="AL22" s="1">
-        <v>1222.300000</v>
+        <v>1222.3</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.145300</v>
+        <v>-89.145300000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>21345.066135</v>
+        <v>21345.066135000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.929185</v>
+        <v>5.9291850000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1230.240000</v>
+        <v>1230.24</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.132000</v>
+        <v>-101.13200000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>21356.177513</v>
+        <v>21356.177512999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.932272</v>
+        <v>5.9322720000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1240.220000</v>
+        <v>1240.22</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.486000</v>
+        <v>-120.486</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>21366.809259</v>
+        <v>21366.809259000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>5.935225</v>
       </c>
       <c r="BA22" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.931000</v>
+        <v>-137.93100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>21377.560046</v>
+        <v>21377.560045999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.938211</v>
+        <v>5.9382109999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.429000</v>
+        <v>-219.429</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>21388.547422</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.941263</v>
+        <v>5.9412630000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="BL22" s="1">
-        <v>-354.860000</v>
+        <v>-354.86</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>21398.771985</v>
+        <v>21398.771984999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.944103</v>
+        <v>5.9441030000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1471.750000</v>
+        <v>1471.75</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.624000</v>
+        <v>-575.62400000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>21409.768258</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.947158</v>
+        <v>5.9471579999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1601.920000</v>
+        <v>1601.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-825.311000</v>
+        <v>-825.31100000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>21420.618244</v>
+        <v>21420.618244000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.950172</v>
+        <v>5.9501720000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1753.290000</v>
+        <v>1753.29</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.210000</v>
+        <v>-1097.21</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>21433.914032</v>
+        <v>21433.914032000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.953865</v>
+        <v>5.9538650000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>2169.320000</v>
+        <v>2169.3200000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1758.350000</v>
+        <v>-1758.35</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>21260.890120</v>
+        <v>21260.89012</v>
       </c>
       <c r="B23" s="1">
-        <v>5.905803</v>
+        <v>5.9058029999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>1140.270000</v>
+        <v>1140.27</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.707000</v>
+        <v>-257.70699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>21271.358153</v>
+        <v>21271.358153000001</v>
       </c>
       <c r="G23" s="1">
-        <v>5.908711</v>
+        <v>5.9087110000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>1160.230000</v>
+        <v>1160.23</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.733000</v>
+        <v>-215.733</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>21281.665515</v>
+        <v>21281.665515000001</v>
       </c>
       <c r="L23" s="1">
-        <v>5.911574</v>
+        <v>5.9115739999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1188.390000</v>
+        <v>1188.3900000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.019000</v>
+        <v>-150.01900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>21292.497149</v>
+        <v>21292.497148999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.914583</v>
+        <v>5.9145830000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>1196.280000</v>
+        <v>1196.28</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.792000</v>
+        <v>-127.792</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>21302.955297</v>
       </c>
       <c r="V23" s="1">
-        <v>5.917488</v>
+        <v>5.9174879999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1203.330000</v>
+        <v>1203.33</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.982000</v>
+        <v>-106.982</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>21313.496796</v>
+        <v>21313.496795999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.920416</v>
+        <v>5.9204160000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>1210.730000</v>
+        <v>1210.73</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.114400</v>
+        <v>-90.114400000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>21323.993603</v>
+        <v>21323.993602999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.923332</v>
+        <v>5.9233320000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.734200</v>
+        <v>-85.734200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>21334.537095</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.926260</v>
+        <v>5.9262600000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1222.310000</v>
+        <v>1222.31</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.162800</v>
+        <v>-89.162800000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>21345.727798</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.929369</v>
+        <v>5.9293690000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1230.230000</v>
+        <v>1230.23</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.121000</v>
+        <v>-101.121</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>21356.624904</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.932396</v>
+        <v>5.9323959999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1240.280000</v>
+        <v>1240.28</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.486000</v>
+        <v>-120.486</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>21367.257178</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.935349</v>
+        <v>5.9353490000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.937000</v>
+        <v>-137.93700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>21377.919148</v>
+        <v>21377.919148000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.938311</v>
+        <v>5.9383109999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.441000</v>
+        <v>-219.441</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>21388.934830</v>
+        <v>21388.934829999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.941371</v>
+        <v>5.9413710000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.340000</v>
+        <v>1358.34</v>
       </c>
       <c r="BL23" s="1">
-        <v>-354.931000</v>
+        <v>-354.93099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>21399.169745</v>
+        <v>21399.169744999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.944214</v>
+        <v>5.9442139999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.760000</v>
+        <v>1471.76</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.591000</v>
+        <v>-575.59100000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>21410.183939</v>
+        <v>21410.183938999999</v>
       </c>
       <c r="BT23" s="1">
         <v>5.947273</v>
       </c>
       <c r="BU23" s="1">
-        <v>1601.870000</v>
+        <v>1601.87</v>
       </c>
       <c r="BV23" s="1">
-        <v>-825.423000</v>
+        <v>-825.423</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>21421.047284</v>
@@ -6103,150 +6519,150 @@
         <v>5.950291</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1753.160000</v>
+        <v>1753.16</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1097.020000</v>
+        <v>-1097.02</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>21434.429841</v>
+        <v>21434.429841000001</v>
       </c>
       <c r="CD23" s="1">
         <v>5.954008</v>
       </c>
       <c r="CE23" s="1">
-        <v>2170.870000</v>
+        <v>2170.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1757.230000</v>
+        <v>-1757.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>21261.233318</v>
+        <v>21261.233317999999</v>
       </c>
       <c r="B24" s="1">
-        <v>5.905898</v>
+        <v>5.9058979999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1140.430000</v>
+        <v>1140.43</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.288000</v>
+        <v>-257.28800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>21271.920616</v>
+        <v>21271.920615999999</v>
       </c>
       <c r="G24" s="1">
-        <v>5.908867</v>
+        <v>5.9088669999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1161.730000</v>
+        <v>1161.73</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.204000</v>
+        <v>-215.20400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>21282.359916</v>
+        <v>21282.359916000001</v>
       </c>
       <c r="L24" s="1">
-        <v>5.911767</v>
+        <v>5.9117670000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1188.440000</v>
+        <v>1188.44</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.805000</v>
+        <v>-149.80500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>21292.835917</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.914677</v>
+        <v>5.9146770000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1196.310000</v>
+        <v>1196.31</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.784000</v>
+        <v>-127.78400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>21303.299520</v>
+        <v>21303.29952</v>
       </c>
       <c r="V24" s="1">
-        <v>5.917583</v>
+        <v>5.9175829999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1203.460000</v>
+        <v>1203.46</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.007000</v>
+        <v>-107.00700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>21313.844465</v>
+        <v>21313.844464999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.920512</v>
+        <v>5.9205120000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>1210.710000</v>
+        <v>1210.71</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.143800</v>
+        <v>-90.143799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>21324.632450</v>
+        <v>21324.632450000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.923509</v>
+        <v>5.9235090000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1215.050000</v>
+        <v>1215.05</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.652900</v>
+        <v>-85.652900000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>21335.209141</v>
+        <v>21335.209140999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.926447</v>
+        <v>5.9264469999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.160900</v>
+        <v>-89.160899999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>21346.177174</v>
@@ -6255,497 +6671,497 @@
         <v>5.929494</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1230.240000</v>
+        <v>1230.24</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.147000</v>
+        <v>-101.14700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>21356.989960</v>
+        <v>21356.989959999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.932497</v>
+        <v>5.9324969999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.490000</v>
+        <v>-120.49</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>21367.615785</v>
+        <v>21367.615785000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.935449</v>
+        <v>5.9354490000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1248.750000</v>
+        <v>1248.75</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.932000</v>
+        <v>-137.93199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>21378.280732</v>
+        <v>21378.280731999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.938411</v>
+        <v>5.9384110000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1288.920000</v>
+        <v>1288.92</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.474000</v>
+        <v>-219.47399999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>21389.351438</v>
+        <v>21389.351438000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.941487</v>
+        <v>5.9414870000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.340000</v>
+        <v>1358.34</v>
       </c>
       <c r="BL24" s="1">
-        <v>-354.836000</v>
+        <v>-354.83600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>21399.600271</v>
+        <v>21399.600270999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.944333</v>
+        <v>5.9443330000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.614000</v>
+        <v>-575.61400000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>21410.597570</v>
+        <v>21410.597570000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.947388</v>
+        <v>5.9473880000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1601.900000</v>
+        <v>1601.9</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.359000</v>
+        <v>-825.35900000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>21421.481779</v>
+        <v>21421.481779000002</v>
       </c>
       <c r="BY24" s="1">
         <v>5.950412</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1753.180000</v>
+        <v>1753.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1097.290000</v>
+        <v>-1097.29</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>21434.949153</v>
+        <v>21434.949153000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.954153</v>
+        <v>5.9541529999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2169.830000</v>
+        <v>2169.83</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1755.550000</v>
+        <v>-1755.55</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>21261.911349</v>
+        <v>21261.911349000002</v>
       </c>
       <c r="B25" s="1">
-        <v>5.906086</v>
+        <v>5.9060860000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1140.030000</v>
+        <v>1140.03</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.747000</v>
+        <v>-257.74700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>21272.273272</v>
+        <v>21272.273271999999</v>
       </c>
       <c r="G25" s="1">
-        <v>5.908965</v>
+        <v>5.9089650000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1161.410000</v>
+        <v>1161.4100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.665000</v>
+        <v>-215.66499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>21282.705136</v>
       </c>
       <c r="L25" s="1">
-        <v>5.911863</v>
+        <v>5.9118630000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>1188.680000</v>
+        <v>1188.68</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.737000</v>
+        <v>-149.73699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>21293.196014</v>
+        <v>21293.196014000001</v>
       </c>
       <c r="Q25" s="1">
         <v>5.914777</v>
       </c>
       <c r="R25" s="1">
-        <v>1196.310000</v>
+        <v>1196.31</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.795000</v>
+        <v>-127.795</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>21303.950271</v>
+        <v>21303.950271000002</v>
       </c>
       <c r="V25" s="1">
         <v>5.917764</v>
       </c>
       <c r="W25" s="1">
-        <v>1203.390000</v>
+        <v>1203.3900000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.081000</v>
+        <v>-107.081</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>21314.498224</v>
+        <v>21314.498223999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.920694</v>
+        <v>5.9206940000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1210.740000</v>
+        <v>1210.74</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.116300</v>
+        <v>-90.116299999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>21325.022338</v>
+        <v>21325.022337999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.923617</v>
+        <v>5.9236170000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.650800</v>
+        <v>-85.650800000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>21335.581177</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.926550</v>
+        <v>5.9265499999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.159000</v>
+        <v>-89.159000000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>21346.538294</v>
+        <v>21346.538294000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.929594</v>
+        <v>5.9295939999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1230.220000</v>
+        <v>1230.22</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.144000</v>
+        <v>-101.14400000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>21357.353031</v>
+        <v>21357.353030999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.932598</v>
+        <v>5.9325979999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.456000</v>
+        <v>-120.456</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>21367.977370</v>
+        <v>21367.977370000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>5.935549</v>
       </c>
       <c r="BA25" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.926000</v>
+        <v>-137.92599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>21378.695417</v>
+        <v>21378.695416999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.938527</v>
+        <v>5.9385269999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1288.930000</v>
+        <v>1288.93</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.433000</v>
+        <v>-219.43299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>21389.691730</v>
+        <v>21389.691729999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.941581</v>
+        <v>5.9415810000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.410000</v>
+        <v>1358.41</v>
       </c>
       <c r="BL25" s="1">
-        <v>-354.866000</v>
+        <v>-354.86599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>21399.988639</v>
+        <v>21399.988638999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.944441</v>
+        <v>5.9444410000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1471.690000</v>
+        <v>1471.69</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.612000</v>
+        <v>-575.61199999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>21411.012225</v>
+        <v>21411.012224999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.947503</v>
+        <v>5.9475030000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1601.960000</v>
+        <v>1601.96</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.453000</v>
+        <v>-825.45299999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>21421.904371</v>
+        <v>21421.904371000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.950529</v>
+        <v>5.9505290000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.370000</v>
+        <v>-1097.3699999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>21435.468465</v>
+        <v>21435.468465000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.954297</v>
+        <v>5.9542970000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>2170.530000</v>
+        <v>2170.5300000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1755.520000</v>
+        <v>-1755.52</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>21262.256565</v>
       </c>
       <c r="B26" s="1">
-        <v>5.906182</v>
+        <v>5.9061820000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>1140.450000</v>
+        <v>1140.45</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.442000</v>
+        <v>-257.44200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>21272.617528</v>
+        <v>21272.617527999999</v>
       </c>
       <c r="G26" s="1">
-        <v>5.909060</v>
+        <v>5.9090600000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1161.870000</v>
+        <v>1161.8699999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.578000</v>
+        <v>-215.578</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>21283.051833</v>
+        <v>21283.051833000001</v>
       </c>
       <c r="L26" s="1">
-        <v>5.911959</v>
+        <v>5.9119590000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>1188.560000</v>
+        <v>1188.56</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.599000</v>
+        <v>-149.59899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>21293.851755</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.914959</v>
+        <v>5.9149589999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1196.330000</v>
+        <v>1196.33</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.879000</v>
+        <v>-127.879</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>21304.328717</v>
       </c>
       <c r="V26" s="1">
-        <v>5.917869</v>
+        <v>5.9178689999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>1203.480000</v>
+        <v>1203.48</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.982000</v>
+        <v>-106.982</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>21314.889572</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.920803</v>
+        <v>5.9208030000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1210.760000</v>
+        <v>1210.76</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.053200</v>
+        <v>-90.053200000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>21325.365042</v>
+        <v>21325.365042000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.923713</v>
+        <v>5.9237130000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.587900</v>
+        <v>-85.587900000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>21335.929827</v>
@@ -6754,150 +7170,151 @@
         <v>5.926647</v>
       </c>
       <c r="AL26" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.164700</v>
+        <v>-89.164699999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>21346.898357</v>
+        <v>21346.898356999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.929694</v>
+        <v>5.9296939999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1230.230000</v>
+        <v>1230.23</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.135000</v>
+        <v>-101.13500000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>21357.773142</v>
+        <v>21357.773141999998</v>
       </c>
       <c r="AU26" s="1">
         <v>5.932715</v>
       </c>
       <c r="AV26" s="1">
-        <v>1240.260000</v>
+        <v>1240.26</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.470000</v>
+        <v>-120.47</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>21368.383592</v>
+        <v>21368.383591999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.935662</v>
+        <v>5.9356619999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1248.740000</v>
+        <v>1248.74</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.900000</v>
+        <v>-137.9</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>21379.002938</v>
+        <v>21379.002938000001</v>
       </c>
       <c r="BE26" s="1">
         <v>5.938612</v>
       </c>
       <c r="BF26" s="1">
-        <v>1288.940000</v>
+        <v>1288.94</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.434000</v>
+        <v>-219.434</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>21390.083533</v>
+        <v>21390.083533000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.941690</v>
+        <v>5.9416900000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL26" s="1">
-        <v>-354.862000</v>
+        <v>-354.86200000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>21400.410240</v>
+        <v>21400.410240000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.944558</v>
+        <v>5.9445579999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1471.750000</v>
+        <v>1471.75</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.608000</v>
+        <v>-575.60799999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>21411.427382</v>
+        <v>21411.427382000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.947619</v>
+        <v>5.9476190000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1601.940000</v>
+        <v>1601.94</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.439000</v>
+        <v>-825.43899999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>21422.328450</v>
+        <v>21422.328450000001</v>
       </c>
       <c r="BY26" s="1">
         <v>5.950647</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.150000</v>
+        <v>-1097.1500000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>21436.019552</v>
+        <v>21436.019552000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.954450</v>
+        <v>5.9544499999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>2170.830000</v>
+        <v>2170.83</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1757.250000</v>
+        <v>-1757.25</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>